--- a/data/trans_dic/P2B_1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2B_1-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con movilidad a otra vivienda por motivos de confortabilidad</t>
+          <t>Población con movilidad a otra vivienda por motivos de confortabilidad (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>28,13%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>44,26%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>36,01%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,13%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>37,39%</t>
+          <t>5,26%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,4; 59,32</t>
+          <t>0,0; 7,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,96; 85,15</t>
+          <t>0,0; 39,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,76; 61,02</t>
+          <t>0,0; 5,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,84; 57,44</t>
+          <t>0,51; 8,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,33; 51,35</t>
+          <t>0,45; 4,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,77; 69,62</t>
+          <t>1,18; 18,51</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>25,07%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>43,6%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>31,29%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>35,45%</t>
+          <t>1,77%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,52; 44,45</t>
+          <t>0,33; 3,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,68; 67,35</t>
+          <t>1,07; 4,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 22,5</t>
+          <t>0,0; 2,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,36; 54,71</t>
+          <t>0,47; 2,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,71; 26,75</t>
+          <t>0,33; 2,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,73; 53,08</t>
+          <t>0,98; 3,11</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25,93%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,47%</t>
+          <t>1,48%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 26,67</t>
+          <t>0,42; 3,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,47; 63,01</t>
+          <t>0,33; 3,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,07; 40,71</t>
+          <t>0,0; 2,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,07; 47,76</t>
+          <t>0,64; 3,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,94; 23,8</t>
+          <t>0,4; 2,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,49; 52,05</t>
+          <t>0,7; 2,79</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>37,58%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,83%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,06%</t>
+          <t>0,8%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,24; 30,24</t>
+          <t>0,26; 1,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,59; 57,68</t>
+          <t>0,28; 2,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,66; 26,66</t>
+          <t>0,39; 1,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,53; 43,18</t>
+          <t>0,19; 1,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,39; 25,14</t>
+          <t>0,45; 1,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>22,79; 46,16</t>
+          <t>0,39; 1,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,02%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,29%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 1,61</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,04; 5,15</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0,5; 1,42</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 2,03</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 1,32</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 3,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con movilidad a otra vivienda por motivos de confortabilidad (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5057</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>30039</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3908</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9996</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8964</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>40035</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17205</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 133059</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14855</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2134; 35321</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2180; 21945</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8963; 140846</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>7879</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>22047</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4463</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12153</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>12342</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>34201</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2142; 21932</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>9956; 44598</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15528</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4714; 27439</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4452; 27364</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>18892; 60111</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6547</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7903</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4017</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>14124</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10564</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>22027</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1922; 16073</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2357; 22041</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12070</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4919; 28675</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3969; 23661</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10339; 41355</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>15799</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>12700</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>18065</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>10182</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>33863</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>22882</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5470; 34247</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4036; 32964</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>8220; 33807</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2687; 25425</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>18976; 56505</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>11104; 44292</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>35281</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>72689</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>30453</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>46455</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>65734</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>119144</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>19863; 55604</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>35894; 177567</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>18123; 50951</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>28120; 73081</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>43339; 93286</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>79224; 219000</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>